--- a/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
+++ b/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>79.91</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>79.91</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.63</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
+++ b/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
+++ b/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
@@ -770,12 +770,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
+++ b/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
+++ b/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
+++ b/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -607,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>78.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0472</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.1328</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -713,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.1327</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -909,7 +877,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -939,36 +907,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1373</t>
+          <t>0.0472</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -977,36 +945,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1328</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1015,32 +983,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>84.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1327</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1058,96 +1026,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
+++ b/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -605,32 +622,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1373</t>
+          <t>0.1465</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>78.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1328</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1327</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -719,6 +736,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -850,7 +1037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1020,7 +1207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
+++ b/数据整理/stocks/A股/创业板/300229-拓尔思.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>76.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1465</t>
+          <t>0.1963</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.28</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1461</t>
+          <t>0.1962</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -708,26 +725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.1851</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -792,32 +809,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1373</t>
+          <t>0.1465</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -830,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>78.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1328</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -868,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1327</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -906,6 +923,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1037,7 +1224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1207,7 +1394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
